--- a/xlsx/俄克拉何马州_intext.xlsx
+++ b/xlsx/俄克拉何马州_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="564">
   <si>
     <t>俄克拉何马州</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_俄克拉何马州</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_俄克拉何马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E%E5%B7%9E%E6%97%97</t>
   </si>
   <si>
-    <t>奧克拉荷馬州州旗</t>
+    <t>奥克拉荷马州州旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Oklahoma</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%98%AD%E5%85%8B%E7%A6%8F%E5%BE%B7</t>
   </si>
   <si>
-    <t>詹姆斯·蘭克福德</t>
+    <t>詹姆斯·兰克福德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E7%BE%85%E5%9F%BA%E8%AA%9E</t>
   </si>
   <si>
-    <t>切羅基語</t>
+    <t>切罗基语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A7%E5%85%8B%E9%99%B6%E6%97%8F</t>
@@ -221,13 +221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E8%B3%BC%E5%9C%B0</t>
   </si>
   <si>
-    <t>路易斯安那購地</t>
+    <t>路易斯安那购地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%85%8B%E6%8B%89%E4%BD%95%E9%A9%AC%E5%B7%9E%E5%8F%82%E8%AE%AE%E9%99%A2</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E8%8E%AB%E7%A7%9F%E8%BB%8A</t>
   </si>
   <si>
-    <t>阿拉莫租車</t>
+    <t>阿拉莫租车</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Conoco_Inc.</t>
@@ -311,19 +311,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>羅馬天主教</t>
+    <t>罗马天主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E7%A4%BC%E4%BC%9A</t>
@@ -347,13 +347,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%90%86%E5%85%AC%E6%9C%83</t>
   </si>
   <si>
-    <t>衛理公會</t>
+    <t>卫理公会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E9%96%80%E6%95%99</t>
   </si>
   <si>
-    <t>摩爾門教</t>
+    <t>摩尔门教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E8%92%99</t>
@@ -371,25 +371,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%9B%BC_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>諾曼 (奧克拉荷馬州)</t>
+    <t>诺曼 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B8%82</t>
   </si>
   <si>
-    <t>奧克拉荷馬市</t>
+    <t>奥克拉荷马市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%88%BE%E8%96%A9</t>
   </si>
   <si>
-    <t>圖爾薩</t>
+    <t>图尔萨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>奧克拉荷馬大學</t>
+    <t>奥克拉荷马大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/University_of_Oklahoma</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>中央奧克拉荷馬大學</t>
+    <t>中央奥克拉荷马大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/University_of_Central_Oklahoma</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>奧克拉荷馬州立大學</t>
+    <t>奥克拉荷马州立大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Oklahoma_State_University</t>
@@ -527,25 +527,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%A5%A7%E8%89%AF%E9%B5%9C%E9%B6%98</t>
   </si>
   <si>
-    <t>紐奧良鵜鶘</t>
+    <t>纽奥良鹈鹕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96%E8%B6%85%E9%9F%B3%E9%80%9F</t>
   </si>
   <si>
-    <t>西雅圖超音速</t>
+    <t>西雅图超音速</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96</t>
   </si>
   <si>
-    <t>西雅圖</t>
+    <t>西雅图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%9F%8E%E9%9B%B7%E9%9C%86</t>
   </si>
   <si>
-    <t>奧克拉荷馬城雷霆</t>
+    <t>奥克拉荷马城雷霆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%92%E7%90%83</t>
@@ -557,25 +557,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>小聯盟</t>
+    <t>小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E9%81%8A%E9%A8%8E%E5%85%B5_(%E6%A3%92%E7%90%83)</t>
   </si>
   <si>
-    <t>德克薩斯遊騎兵 (棒球)</t>
+    <t>德克萨斯游骑兵 (棒球)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%B4%9B%E7%A3%AF</t>
   </si>
   <si>
-    <t>科羅拉多洛磯</t>
+    <t>科罗拉多洛矶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E9%81%93%E5%A5%87</t>
   </si>
   <si>
-    <t>洛杉磯道奇</t>
+    <t>洛杉矶道奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E5%8A%A0%E5%BE%B7%E7%BA%B3</t>
@@ -587,61 +587,61 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%BE%8E%E7%8D%8E</t>
   </si>
   <si>
-    <t>艾美獎</t>
+    <t>艾美奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E6%93%8D</t>
   </si>
   <si>
-    <t>體操</t>
+    <t>体操</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>奧林匹克運動會</t>
+    <t>奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%A2%C2%B7%E5%BD%BC%E7%89%B9</t>
   </si>
   <si>
-    <t>畢·彼特</t>
+    <t>毕·彼特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E5%8D%A1</t>
   </si>
   <si>
-    <t>奧斯卡</t>
+    <t>奥斯卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%90%83%E7%8D%8E</t>
   </si>
   <si>
-    <t>金球獎</t>
+    <t>金球奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%BA%E6%AE%BA%E5%82%91%E8%A5%BF</t>
   </si>
   <si>
-    <t>刺殺傑西</t>
+    <t>刺杀杰西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%BC%E6%96%AF%E9%9B%BB%E5%BD%B1%E7%AF%80</t>
   </si>
   <si>
-    <t>威尼斯電影節</t>
+    <t>威尼斯电影节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%82%91%E6%98%8E%E7%9A%84%E5%A5%87%E5%B9%BB%E6%97%85%E7%A8%8B</t>
   </si>
   <si>
-    <t>班傑明的奇幻旅程</t>
+    <t>班杰明的奇幻旅程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E8%92%82%C2%B7%E4%BD%A9%E5%A5%87</t>
@@ -653,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E9%9B%B7%E9%9C%86%E9%9A%8A</t>
   </si>
   <si>
-    <t>奧克拉荷馬雷霆隊</t>
+    <t>奥克拉荷马雷霆队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%89%E5%85%83</t>
@@ -671,13 +671,13 @@
     <t>https://zh.wikipedia.org/wiki/35%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>35號州際公路</t>
+    <t>35号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/40%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>40號州際公路</t>
+    <t>40号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/44%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
@@ -737,19 +737,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B7%E7%AE%AD%E5%9F%8E</t>
   </si>
   <si>
-    <t>斷箭城</t>
+    <t>断箭城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%92%99_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>愛德蒙 (奧克拉荷馬州)</t>
+    <t>爱德蒙 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E9%A1%BF_(%E4%BF%84%E5%85%8B%E6%8B%89%E4%BD%95%E9%A9%AC%E5%B7%9E)</t>
@@ -761,9 +761,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%96%AF%E7%A7%91%E5%90%89_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬斯科吉 (奧克拉荷馬州)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E5%B0%94_(%E4%BF%84%E5%85%8B%E6%8B%89%E4%BD%95%E9%A9%AC%E5%B7%9E)</t>
   </si>
   <si>
@@ -791,7 +788,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E7%88%BE%E8%96%A9</t>
   </si>
   <si>
-    <t>塔爾薩</t>
+    <t>塔尔萨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%B2%E7%A9%BA_(%E4%BF%84%E5%85%8B%E6%8B%89%E4%BD%95%E9%A9%AC%E5%B7%9E)</t>
@@ -803,91 +800,91 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BB%A3%E7%88%BE%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>亞代爾縣 (奧克拉荷馬州)</t>
+    <t>亚代尔县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%88%BE%E7%99%BC%E6%B3%95%E7%B8%A3</t>
   </si>
   <si>
-    <t>亞爾發法縣</t>
+    <t>亚尔发法县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%89%98%E5%8D%A1%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>阿托卡縣 (奧克拉荷馬州)</t>
+    <t>阿托卡县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BD%9B%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>比佛縣 (奧克拉荷馬州)</t>
+    <t>比佛县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%9D%8E%E7%B8%A3</t>
   </si>
   <si>
-    <t>貝坎縣</t>
+    <t>贝坎县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%90%8A%E6%81%A9%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布萊恩縣 (奧克拉荷馬州)</t>
+    <t>布莱恩县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%B3%B4%E6%81%A9%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布賴恩縣 (奧克拉荷馬州)</t>
+    <t>布赖恩县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A4%9A%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>卡多縣 (奧克拉荷馬州)</t>
+    <t>卡多县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E4%BA%BA%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>加拿大人縣 (奧克拉荷馬州)</t>
+    <t>加拿大人县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>卡特縣 (奧克拉荷馬州)</t>
+    <t>卡特县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E7%BE%85%E5%9F%BA%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>切羅基縣 (奧克拉荷馬州)</t>
+    <t>切罗基县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E5%85%8B%E6%89%98%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>喬克托縣 (奧克拉荷馬州)</t>
+    <t>乔克托县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E9%A6%AC%E9%BE%8D%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>錫馬龍縣 (奧克拉荷馬州)</t>
+    <t>锡马龙县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A4%AB%E8%98%AD%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克里夫蘭縣 (奧克拉荷馬州)</t>
+    <t>克里夫兰县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%88%BE%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>科爾縣 (奧克拉荷馬州)</t>
+    <t>科尔县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%9B%BC%E5%A5%87%E5%8E%BF_(%E4%BF%84%E5%85%8B%E6%8B%89%E4%BD%95%E9%A9%AC%E5%B7%9E)</t>
@@ -899,49 +896,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%A0%93%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>卡頓縣 (奧克拉荷馬州)</t>
+    <t>卡顿县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%9B%B7%E6%A0%BC%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克雷格縣 (奧克拉荷馬州)</t>
+    <t>克雷格县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克里縣 (奧克拉荷馬州)</t>
+    <t>克里县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E7%89%B9%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>卡斯特縣 (奧克拉荷馬州)</t>
+    <t>卡斯特县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E8%8F%AF%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>特拉華縣 (奧克拉荷馬州)</t>
+    <t>特拉华县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%A8%81%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>杜威縣 (奧克拉荷馬州)</t>
+    <t>杜威县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%88%A9%E6%96%AF%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>埃利斯縣 (奧克拉荷馬州)</t>
+    <t>埃利斯县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%8F%B2%E7%88%BE%E5%BE%B7%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>加菲爾德縣 (奧克拉荷馬州)</t>
+    <t>加菲尔德县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%96%87%E5%8E%BF_(%E4%BF%84%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A9%AC%E5%B7%9E)</t>
@@ -953,43 +950,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%9B%B7%E8%BF%AA%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格雷迪縣 (奧克拉荷馬州)</t>
+    <t>格雷迪县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E7%89%B9%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格蘭特縣 (奧克拉荷馬州)</t>
+    <t>格兰特县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%87%8C%E7%88%BE%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格里爾縣 (奧克拉荷馬州)</t>
+    <t>格里尔县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%92%99%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>哈蒙縣 (奧克拉荷馬州)</t>
+    <t>哈蒙县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%8F%80%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>哈珀縣 (奧克拉荷馬州)</t>
+    <t>哈珀县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%96%AF%E5%85%8B%E7%88%BE%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>哈斯克爾縣 (奧克拉荷馬州)</t>
+    <t>哈斯克尔县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%96%AF%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>休斯縣 (奧克拉荷馬州)</t>
+    <t>休斯县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%E9%80%8A%E5%8E%BF_(%E4%BF%84%E5%85%8B%E6%8B%89%E4%BD%95%E9%A9%AC%E5%B7%9E)</t>
@@ -1001,115 +998,115 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E4%BD%9B%E9%81%9C%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>傑佛遜縣 (奧克拉荷馬州)</t>
+    <t>杰佛逊县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E6%96%AF%E9%A0%93%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>約翰斯頓縣 (奧克拉荷馬州)</t>
+    <t>约翰斯顿县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%B8%A3</t>
   </si>
   <si>
-    <t>凱縣</t>
+    <t>凯县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%8F%B2%E8%88%8D%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>金菲舍縣 (奧克拉荷馬州)</t>
+    <t>金菲舍县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E5%8E%84%E7%93%A6%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>凱厄瓦縣 (奧克拉荷馬州)</t>
+    <t>凯厄瓦县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%92%82%E9%BB%98%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>拉蒂默縣 (奧克拉荷馬州)</t>
+    <t>拉蒂默县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%A6%8F%E5%8B%92%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>利福勒縣 (奧克拉荷馬州)</t>
+    <t>利福勒县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>林肯縣 (奧克拉荷馬州)</t>
+    <t>林肯县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%A0%B9%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛根縣 (奧克拉荷馬州)</t>
+    <t>洛根县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%A4%AB%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>拉夫縣 (奧克拉荷馬州)</t>
+    <t>拉夫县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%82%91%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>梅傑縣 (奧克拉荷馬州)</t>
+    <t>梅杰县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%AD%87%E7%88%BE%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬歇爾縣 (奧克拉荷馬州)</t>
+    <t>马歇尔县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E6%96%AF%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>梅斯縣 (奧克拉荷馬州)</t>
+    <t>梅斯县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%E8%90%8A%E6%81%A9%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>麥克萊恩縣 (奧克拉荷馬州)</t>
+    <t>麦克莱恩县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E6%9F%AF%E5%BB%B7%E7%B8%A3</t>
   </si>
   <si>
-    <t>麥柯廷縣</t>
+    <t>麦柯廷县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E9%87%91%E6%89%98%E4%BB%80%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>麥金托什縣 (奧克拉荷馬州)</t>
+    <t>麦金托什县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E9%9B%B7%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>莫雷縣 (奧克拉荷馬州)</t>
+    <t>莫雷县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%B8%83%E7%88%BE%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>諾布爾縣 (奧克拉荷馬州)</t>
+    <t>诺布尔县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E7%93%A6%E5%A1%94%E7%B8%A3</t>
   </si>
   <si>
-    <t>諾瓦塔縣</t>
+    <t>诺瓦塔县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%8B%E7%A6%8F%E6%96%AF%E5%9F%BA%E5%8E%BF_(%E4%BF%84%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A9%AC%E5%B7%9E)</t>
@@ -1121,139 +1118,139 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E7%B8%A3</t>
   </si>
   <si>
-    <t>奧克拉荷馬縣</t>
+    <t>奥克拉荷马县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E9%A6%AC%E7%88%BE%E5%90%89%E7%B8%A3</t>
   </si>
   <si>
-    <t>奧克馬爾吉縣</t>
+    <t>奥克马尔吉县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%A1%9E%E5%A5%87%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>歐塞奇縣 (奧克拉荷馬州)</t>
+    <t>欧塞奇县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A5%E5%A4%AA%E8%8F%AF%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>渥太華縣 (奧克拉荷馬州)</t>
+    <t>渥太华县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B0%BC%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>波尼縣 (奧克拉荷馬州)</t>
+    <t>波尼县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E6%81%A9%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>佩恩縣 (奧克拉荷馬州)</t>
+    <t>佩恩县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E8%8C%B2%E5%A0%A1%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>匹茲堡縣 (奧克拉荷馬州)</t>
+    <t>匹兹堡县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%90%E6%89%98%E6%89%98%E5%85%8B%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>龐托托克縣 (奧克拉荷馬州)</t>
+    <t>庞托托克县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E7%93%A6%E7%89%B9%E7%B1%B3%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>波特瓦特米縣 (奧克拉荷馬州)</t>
+    <t>波特瓦特米县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%BB%80%E9%A6%AC%E5%A1%94%E5%93%88%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>普什馬塔哈縣 (奧克拉荷馬州)</t>
+    <t>普什马塔哈县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%82%91%E7%B1%B3%E7%88%BE%E6%96%AF%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>羅傑米爾斯縣 (奧克拉荷馬州)</t>
+    <t>罗杰米尔斯县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%82%91%E6%96%AF%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>羅傑斯縣 (奧克拉荷馬州)</t>
+    <t>罗杰斯县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B1%B3%E8%AB%BE%E7%88%BE%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>塞米諾爾縣 (奧克拉荷馬州)</t>
+    <t>塞米诺尔县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E9%97%8A%E9%9B%85%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>塞闊雅縣 (奧克拉荷馬州)</t>
+    <t>塞阔雅县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E8%92%82%E8%8A%AC%E6%96%AF%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>斯蒂芬斯縣 (奧克拉荷馬州)</t>
+    <t>斯蒂芬斯县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>德克薩斯縣 (奧克拉荷馬州)</t>
+    <t>德克萨斯县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%82%E7%88%BE%E6%9B%BC%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒂爾曼縣 (奧克拉荷馬州)</t>
+    <t>蒂尔曼县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E6%88%88%E7%B4%8D%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>瓦戈納縣 (奧克拉荷馬州)</t>
+    <t>瓦戈纳县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>華盛頓縣 (奧克拉荷馬州)</t>
+    <t>华盛顿县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B8%8C%E6%89%98%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沃希托縣 (奧克拉荷馬州)</t>
+    <t>沃希托县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E8%8C%B2%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>伍茲縣 (奧克拉荷馬州)</t>
+    <t>伍兹县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E5%BE%B7%E6%B2%83%E5%BE%B7%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>伍德沃德縣 (奧克拉荷馬州)</t>
+    <t>伍德沃德县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
@@ -1271,7 +1268,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -1283,9 +1280,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
   </si>
   <si>
@@ -1307,7 +1301,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -1343,9 +1337,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
   </si>
   <si>
@@ -1373,7 +1364,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -1385,7 +1376,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -1397,9 +1388,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
   </si>
   <si>
@@ -1409,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -1469,7 +1457,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -1523,7 +1511,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -1541,7 +1529,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -1553,19 +1541,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -1583,7 +1571,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -1595,7 +1583,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -1607,7 +1595,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -1619,25 +1607,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -1673,7 +1661,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1691,7 +1679,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1703,7 +1691,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -5714,7 +5702,7 @@
         <v>247</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>116</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5740,10 +5728,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>248</v>
+      </c>
+      <c r="F127" t="s">
         <v>249</v>
-      </c>
-      <c r="F127" t="s">
-        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5769,10 +5757,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>250</v>
+      </c>
+      <c r="F128" t="s">
         <v>251</v>
-      </c>
-      <c r="F128" t="s">
-        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5798,10 +5786,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>252</v>
+      </c>
+      <c r="F129" t="s">
         <v>253</v>
-      </c>
-      <c r="F129" t="s">
-        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5827,10 +5815,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>254</v>
+      </c>
+      <c r="F130" t="s">
         <v>255</v>
-      </c>
-      <c r="F130" t="s">
-        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5856,10 +5844,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>256</v>
+      </c>
+      <c r="F131" t="s">
         <v>257</v>
-      </c>
-      <c r="F131" t="s">
-        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5885,10 +5873,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>258</v>
+      </c>
+      <c r="F132" t="s">
         <v>259</v>
-      </c>
-      <c r="F132" t="s">
-        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5914,10 +5902,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>260</v>
+      </c>
+      <c r="F133" t="s">
         <v>261</v>
-      </c>
-      <c r="F133" t="s">
-        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5943,10 +5931,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>262</v>
+      </c>
+      <c r="F134" t="s">
         <v>263</v>
-      </c>
-      <c r="F134" t="s">
-        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5972,10 +5960,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>264</v>
+      </c>
+      <c r="F135" t="s">
         <v>265</v>
-      </c>
-      <c r="F135" t="s">
-        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6001,10 +5989,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>266</v>
+      </c>
+      <c r="F136" t="s">
         <v>267</v>
-      </c>
-      <c r="F136" t="s">
-        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6030,10 +6018,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>268</v>
+      </c>
+      <c r="F137" t="s">
         <v>269</v>
-      </c>
-      <c r="F137" t="s">
-        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6059,10 +6047,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>270</v>
+      </c>
+      <c r="F138" t="s">
         <v>271</v>
-      </c>
-      <c r="F138" t="s">
-        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6088,10 +6076,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>272</v>
+      </c>
+      <c r="F139" t="s">
         <v>273</v>
-      </c>
-      <c r="F139" t="s">
-        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6117,10 +6105,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>274</v>
+      </c>
+      <c r="F140" t="s">
         <v>275</v>
-      </c>
-      <c r="F140" t="s">
-        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6146,10 +6134,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>276</v>
+      </c>
+      <c r="F141" t="s">
         <v>277</v>
-      </c>
-      <c r="F141" t="s">
-        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6175,10 +6163,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>278</v>
+      </c>
+      <c r="F142" t="s">
         <v>279</v>
-      </c>
-      <c r="F142" t="s">
-        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6204,10 +6192,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>280</v>
+      </c>
+      <c r="F143" t="s">
         <v>281</v>
-      </c>
-      <c r="F143" t="s">
-        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -6233,10 +6221,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>282</v>
+      </c>
+      <c r="F144" t="s">
         <v>283</v>
-      </c>
-      <c r="F144" t="s">
-        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6262,10 +6250,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>284</v>
+      </c>
+      <c r="F145" t="s">
         <v>285</v>
-      </c>
-      <c r="F145" t="s">
-        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6291,10 +6279,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>286</v>
+      </c>
+      <c r="F146" t="s">
         <v>287</v>
-      </c>
-      <c r="F146" t="s">
-        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6320,10 +6308,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>288</v>
+      </c>
+      <c r="F147" t="s">
         <v>289</v>
-      </c>
-      <c r="F147" t="s">
-        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6349,10 +6337,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>290</v>
+      </c>
+      <c r="F148" t="s">
         <v>291</v>
-      </c>
-      <c r="F148" t="s">
-        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6378,10 +6366,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>292</v>
+      </c>
+      <c r="F149" t="s">
         <v>293</v>
-      </c>
-      <c r="F149" t="s">
-        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6407,10 +6395,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>294</v>
+      </c>
+      <c r="F150" t="s">
         <v>295</v>
-      </c>
-      <c r="F150" t="s">
-        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6436,10 +6424,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>296</v>
+      </c>
+      <c r="F151" t="s">
         <v>297</v>
-      </c>
-      <c r="F151" t="s">
-        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6465,10 +6453,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>298</v>
+      </c>
+      <c r="F152" t="s">
         <v>299</v>
-      </c>
-      <c r="F152" t="s">
-        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6494,10 +6482,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>300</v>
+      </c>
+      <c r="F153" t="s">
         <v>301</v>
-      </c>
-      <c r="F153" t="s">
-        <v>302</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6523,10 +6511,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>302</v>
+      </c>
+      <c r="F154" t="s">
         <v>303</v>
-      </c>
-      <c r="F154" t="s">
-        <v>304</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6552,10 +6540,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>304</v>
+      </c>
+      <c r="F155" t="s">
         <v>305</v>
-      </c>
-      <c r="F155" t="s">
-        <v>306</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6581,10 +6569,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>306</v>
+      </c>
+      <c r="F156" t="s">
         <v>307</v>
-      </c>
-      <c r="F156" t="s">
-        <v>308</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6610,10 +6598,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>308</v>
+      </c>
+      <c r="F157" t="s">
         <v>309</v>
-      </c>
-      <c r="F157" t="s">
-        <v>310</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6639,10 +6627,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>310</v>
+      </c>
+      <c r="F158" t="s">
         <v>311</v>
-      </c>
-      <c r="F158" t="s">
-        <v>312</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6668,10 +6656,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>312</v>
+      </c>
+      <c r="F159" t="s">
         <v>313</v>
-      </c>
-      <c r="F159" t="s">
-        <v>314</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6697,10 +6685,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>314</v>
+      </c>
+      <c r="F160" t="s">
         <v>315</v>
-      </c>
-      <c r="F160" t="s">
-        <v>316</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6726,10 +6714,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>316</v>
+      </c>
+      <c r="F161" t="s">
         <v>317</v>
-      </c>
-      <c r="F161" t="s">
-        <v>318</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6755,10 +6743,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>318</v>
+      </c>
+      <c r="F162" t="s">
         <v>319</v>
-      </c>
-      <c r="F162" t="s">
-        <v>320</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6784,10 +6772,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>320</v>
+      </c>
+      <c r="F163" t="s">
         <v>321</v>
-      </c>
-      <c r="F163" t="s">
-        <v>322</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6813,10 +6801,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>322</v>
+      </c>
+      <c r="F164" t="s">
         <v>323</v>
-      </c>
-      <c r="F164" t="s">
-        <v>324</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6842,10 +6830,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>324</v>
+      </c>
+      <c r="F165" t="s">
         <v>325</v>
-      </c>
-      <c r="F165" t="s">
-        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6871,10 +6859,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>326</v>
+      </c>
+      <c r="F166" t="s">
         <v>327</v>
-      </c>
-      <c r="F166" t="s">
-        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6900,10 +6888,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>328</v>
+      </c>
+      <c r="F167" t="s">
         <v>329</v>
-      </c>
-      <c r="F167" t="s">
-        <v>330</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6929,10 +6917,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>330</v>
+      </c>
+      <c r="F168" t="s">
         <v>331</v>
-      </c>
-      <c r="F168" t="s">
-        <v>332</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -6958,10 +6946,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>332</v>
+      </c>
+      <c r="F169" t="s">
         <v>333</v>
-      </c>
-      <c r="F169" t="s">
-        <v>334</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6987,10 +6975,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>334</v>
+      </c>
+      <c r="F170" t="s">
         <v>335</v>
-      </c>
-      <c r="F170" t="s">
-        <v>336</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7016,10 +7004,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>336</v>
+      </c>
+      <c r="F171" t="s">
         <v>337</v>
-      </c>
-      <c r="F171" t="s">
-        <v>338</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7045,10 +7033,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>338</v>
+      </c>
+      <c r="F172" t="s">
         <v>339</v>
-      </c>
-      <c r="F172" t="s">
-        <v>340</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7074,10 +7062,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>340</v>
+      </c>
+      <c r="F173" t="s">
         <v>341</v>
-      </c>
-      <c r="F173" t="s">
-        <v>342</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7103,10 +7091,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>342</v>
+      </c>
+      <c r="F174" t="s">
         <v>343</v>
-      </c>
-      <c r="F174" t="s">
-        <v>344</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7132,10 +7120,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>344</v>
+      </c>
+      <c r="F175" t="s">
         <v>345</v>
-      </c>
-      <c r="F175" t="s">
-        <v>346</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7161,10 +7149,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>346</v>
+      </c>
+      <c r="F176" t="s">
         <v>347</v>
-      </c>
-      <c r="F176" t="s">
-        <v>348</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7190,10 +7178,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>348</v>
+      </c>
+      <c r="F177" t="s">
         <v>349</v>
-      </c>
-      <c r="F177" t="s">
-        <v>350</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7219,10 +7207,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>350</v>
+      </c>
+      <c r="F178" t="s">
         <v>351</v>
-      </c>
-      <c r="F178" t="s">
-        <v>352</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7248,10 +7236,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>352</v>
+      </c>
+      <c r="F179" t="s">
         <v>353</v>
-      </c>
-      <c r="F179" t="s">
-        <v>354</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7277,10 +7265,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>354</v>
+      </c>
+      <c r="F180" t="s">
         <v>355</v>
-      </c>
-      <c r="F180" t="s">
-        <v>356</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7306,10 +7294,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>356</v>
+      </c>
+      <c r="F181" t="s">
         <v>357</v>
-      </c>
-      <c r="F181" t="s">
-        <v>358</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7335,10 +7323,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>358</v>
+      </c>
+      <c r="F182" t="s">
         <v>359</v>
-      </c>
-      <c r="F182" t="s">
-        <v>360</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7364,10 +7352,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>360</v>
+      </c>
+      <c r="F183" t="s">
         <v>361</v>
-      </c>
-      <c r="F183" t="s">
-        <v>362</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7393,10 +7381,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>362</v>
+      </c>
+      <c r="F184" t="s">
         <v>363</v>
-      </c>
-      <c r="F184" t="s">
-        <v>364</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7422,10 +7410,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>364</v>
+      </c>
+      <c r="F185" t="s">
         <v>365</v>
-      </c>
-      <c r="F185" t="s">
-        <v>366</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7451,10 +7439,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>366</v>
+      </c>
+      <c r="F186" t="s">
         <v>367</v>
-      </c>
-      <c r="F186" t="s">
-        <v>368</v>
       </c>
       <c r="G186" t="n">
         <v>43</v>
@@ -7480,10 +7468,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>368</v>
+      </c>
+      <c r="F187" t="s">
         <v>369</v>
-      </c>
-      <c r="F187" t="s">
-        <v>370</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7509,10 +7497,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>370</v>
+      </c>
+      <c r="F188" t="s">
         <v>371</v>
-      </c>
-      <c r="F188" t="s">
-        <v>372</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7538,10 +7526,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>372</v>
+      </c>
+      <c r="F189" t="s">
         <v>373</v>
-      </c>
-      <c r="F189" t="s">
-        <v>374</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7567,10 +7555,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>374</v>
+      </c>
+      <c r="F190" t="s">
         <v>375</v>
-      </c>
-      <c r="F190" t="s">
-        <v>376</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7596,10 +7584,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>376</v>
+      </c>
+      <c r="F191" t="s">
         <v>377</v>
-      </c>
-      <c r="F191" t="s">
-        <v>378</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7625,10 +7613,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>378</v>
+      </c>
+      <c r="F192" t="s">
         <v>379</v>
-      </c>
-      <c r="F192" t="s">
-        <v>380</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7654,10 +7642,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>380</v>
+      </c>
+      <c r="F193" t="s">
         <v>381</v>
-      </c>
-      <c r="F193" t="s">
-        <v>382</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7683,10 +7671,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>382</v>
+      </c>
+      <c r="F194" t="s">
         <v>383</v>
-      </c>
-      <c r="F194" t="s">
-        <v>384</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7712,10 +7700,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>384</v>
+      </c>
+      <c r="F195" t="s">
         <v>385</v>
-      </c>
-      <c r="F195" t="s">
-        <v>386</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7741,10 +7729,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>386</v>
+      </c>
+      <c r="F196" t="s">
         <v>387</v>
-      </c>
-      <c r="F196" t="s">
-        <v>388</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7770,10 +7758,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>388</v>
+      </c>
+      <c r="F197" t="s">
         <v>389</v>
-      </c>
-      <c r="F197" t="s">
-        <v>390</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -7799,10 +7787,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>390</v>
+      </c>
+      <c r="F198" t="s">
         <v>391</v>
-      </c>
-      <c r="F198" t="s">
-        <v>392</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7828,10 +7816,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>392</v>
+      </c>
+      <c r="F199" t="s">
         <v>393</v>
-      </c>
-      <c r="F199" t="s">
-        <v>394</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7857,10 +7845,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>394</v>
+      </c>
+      <c r="F200" t="s">
         <v>395</v>
-      </c>
-      <c r="F200" t="s">
-        <v>396</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7886,10 +7874,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>396</v>
+      </c>
+      <c r="F201" t="s">
         <v>397</v>
-      </c>
-      <c r="F201" t="s">
-        <v>398</v>
       </c>
       <c r="G201" t="n">
         <v>3</v>
@@ -7915,10 +7903,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>398</v>
+      </c>
+      <c r="F202" t="s">
         <v>399</v>
-      </c>
-      <c r="F202" t="s">
-        <v>400</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7944,10 +7932,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>400</v>
+      </c>
+      <c r="F203" t="s">
         <v>401</v>
-      </c>
-      <c r="F203" t="s">
-        <v>402</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7973,10 +7961,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>402</v>
+      </c>
+      <c r="F204" t="s">
         <v>403</v>
-      </c>
-      <c r="F204" t="s">
-        <v>404</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8002,10 +7990,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>404</v>
+      </c>
+      <c r="F205" t="s">
         <v>405</v>
-      </c>
-      <c r="F205" t="s">
-        <v>406</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8031,10 +8019,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>406</v>
+      </c>
+      <c r="F206" t="s">
         <v>407</v>
-      </c>
-      <c r="F206" t="s">
-        <v>408</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8060,10 +8048,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>408</v>
+      </c>
+      <c r="F207" t="s">
         <v>409</v>
-      </c>
-      <c r="F207" t="s">
-        <v>410</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8089,10 +8077,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>410</v>
+      </c>
+      <c r="F208" t="s">
         <v>411</v>
-      </c>
-      <c r="F208" t="s">
-        <v>412</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8118,10 +8106,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>412</v>
+      </c>
+      <c r="F209" t="s">
         <v>413</v>
-      </c>
-      <c r="F209" t="s">
-        <v>414</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8147,10 +8135,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>414</v>
+      </c>
+      <c r="F210" t="s">
         <v>415</v>
-      </c>
-      <c r="F210" t="s">
-        <v>416</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8176,10 +8164,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>416</v>
+      </c>
+      <c r="F211" t="s">
         <v>417</v>
-      </c>
-      <c r="F211" t="s">
-        <v>418</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8234,10 +8222,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>418</v>
+      </c>
+      <c r="F213" t="s">
         <v>419</v>
-      </c>
-      <c r="F213" t="s">
-        <v>420</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8263,10 +8251,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F214" t="s">
-        <v>422</v>
+        <v>226</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -8292,10 +8280,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F215" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8321,10 +8309,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F216" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8350,10 +8338,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F217" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -8379,10 +8367,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F218" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8408,10 +8396,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F219" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -8437,10 +8425,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F220" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8466,10 +8454,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F221" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8495,10 +8483,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F222" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8524,10 +8512,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F223" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8553,10 +8541,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F224" t="s">
-        <v>442</v>
+        <v>228</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8582,10 +8570,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F225" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8611,10 +8599,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F226" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -8640,10 +8628,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F227" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8669,10 +8657,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F228" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8698,10 +8686,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F229" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8727,10 +8715,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F230" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8756,10 +8744,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F231" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8785,10 +8773,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F232" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8814,10 +8802,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F233" t="s">
-        <v>460</v>
+        <v>230</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8843,10 +8831,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F234" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8872,10 +8860,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F235" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8901,10 +8889,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F236" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8930,10 +8918,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F237" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8959,10 +8947,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F238" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9017,10 +9005,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F240" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9046,10 +9034,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F241" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9075,10 +9063,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F242" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9104,10 +9092,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F243" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9133,10 +9121,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F244" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9162,10 +9150,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F245" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9191,10 +9179,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F246" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9220,10 +9208,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F247" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9249,10 +9237,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F248" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9278,10 +9266,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F249" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9307,10 +9295,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F250" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9336,10 +9324,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F251" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9365,10 +9353,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F252" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9394,10 +9382,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F253" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -9423,10 +9411,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F254" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -9452,10 +9440,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F255" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9481,10 +9469,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F256" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9510,10 +9498,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F257" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9539,10 +9527,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F258" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9568,10 +9556,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F259" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9597,10 +9585,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F260" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9626,10 +9614,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F261" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9655,10 +9643,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F262" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9684,10 +9672,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F263" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9713,10 +9701,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F264" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9742,10 +9730,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F265" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9771,10 +9759,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F266" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9800,10 +9788,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F267" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9829,10 +9817,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F268" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9858,10 +9846,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F269" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9887,10 +9875,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F270" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9916,10 +9904,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F271" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9945,10 +9933,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F272" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -9974,10 +9962,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F273" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10003,10 +9991,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F274" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10032,10 +10020,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F275" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10061,10 +10049,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F276" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10090,10 +10078,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F277" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10119,10 +10107,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F278" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10148,10 +10136,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F279" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G279" t="n">
         <v>3</v>
@@ -10177,10 +10165,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F280" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G280" t="n">
         <v>3</v>
@@ -10206,10 +10194,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F281" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10235,10 +10223,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F282" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10264,10 +10252,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F283" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10293,10 +10281,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F284" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10322,10 +10310,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F285" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10351,10 +10339,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F286" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10380,10 +10368,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F287" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G287" t="n">
         <v>12</v>
@@ -10409,10 +10397,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F288" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
